--- a/test/mac_repair/selenium/TC01_test_cases.xlsx
+++ b/test/mac_repair/selenium/TC01_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EEWorkspace\mac_repair\test\mac_repair\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{430C3EE7-98ED-46A1-BD1D-F86A61EC8ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D460D079-52D4-45BA-B2EC-4DFB84C90B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2B72C0E-F55E-4B66-A92C-A53D3DFADCED}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>rep</t>
+    <t>repTest</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
